--- a/new_data_before_miss_value.xlsx
+++ b/new_data_before_miss_value.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="532">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Data Mining</t>
   </si>
   <si>
-    <t>Quantitative Risk Management</t>
+    <t>QRM</t>
   </si>
   <si>
     <t>BA</t>
@@ -88,7 +88,7 @@
     <t>CS</t>
   </si>
   <si>
-    <t>Neuroscience</t>
+    <t>Neur sci</t>
   </si>
   <si>
     <t>Finance</t>
@@ -97,7 +97,7 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>Human Language Tech</t>
+    <t>Hum Lang Tech</t>
   </si>
   <si>
     <t>CLS</t>
@@ -106,28 +106,25 @@
     <t>Info Sci</t>
   </si>
   <si>
-    <t>Exchange</t>
+    <t>Exch</t>
   </si>
   <si>
     <t>Bio Sci</t>
   </si>
   <si>
-    <t>Policy Analysis</t>
-  </si>
-  <si>
-    <t>QRM</t>
-  </si>
-  <si>
-    <t>Digital Business</t>
+    <t>P Analysis</t>
+  </si>
+  <si>
+    <t>Digi Bus</t>
   </si>
   <si>
     <t>PHD</t>
   </si>
   <si>
-    <t>High School 3rd Grade</t>
-  </si>
-  <si>
-    <t>Big Data Eng</t>
+    <t>3rd Gr</t>
+  </si>
+  <si>
+    <t>Data Eng</t>
   </si>
   <si>
     <t>1</t>
@@ -244,166 +241,145 @@
     <t xml:space="preserve">69. </t>
   </si>
   <si>
-    <t>4 :30</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>7 :00</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>2 :45</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>22:20</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>4 :00</t>
-  </si>
-  <si>
-    <t>1 :40</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>0 :15</t>
-  </si>
-  <si>
-    <t>5 :30</t>
-  </si>
-  <si>
-    <t>1 :00</t>
-  </si>
-  <si>
-    <t>23:40</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>23:59</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>02:35</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>22:50</t>
-  </si>
-  <si>
-    <t>1 :20</t>
-  </si>
-  <si>
-    <t>00:25</t>
-  </si>
-  <si>
-    <t>00:20</t>
-  </si>
-  <si>
-    <t>23:45</t>
-  </si>
-  <si>
-    <t>22:16</t>
-  </si>
-  <si>
-    <t>21:53</t>
-  </si>
-  <si>
-    <t>2 :00</t>
-  </si>
-  <si>
-    <t>2 :30</t>
-  </si>
-  <si>
-    <t>00:22</t>
-  </si>
-  <si>
-    <t>02:45</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>23:58</t>
-  </si>
-  <si>
-    <t>23: 5</t>
-  </si>
-  <si>
-    <t>00:26</t>
-  </si>
-  <si>
-    <t>23: 1</t>
-  </si>
-  <si>
-    <t>23:50</t>
-  </si>
-  <si>
-    <t>2 :01</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>01:30</t>
-  </si>
-  <si>
-    <t>01:50</t>
-  </si>
-  <si>
-    <t>1 :30</t>
-  </si>
-  <si>
-    <t>3 :00</t>
-  </si>
-  <si>
-    <t>22:53</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>23:17</t>
-  </si>
-  <si>
-    <t>01:09</t>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>22:45:00</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>02:45:00</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>22:20:00</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>05:30:00</t>
+  </si>
+  <si>
+    <t>23:40:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:59:00</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
+    <t>02:35:00</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
+    <t>01:20:00</t>
+  </si>
+  <si>
+    <t>00:25:00</t>
+  </si>
+  <si>
+    <t>00:20:00</t>
+  </si>
+  <si>
+    <t>23:45:00</t>
+  </si>
+  <si>
+    <t>22:16:00</t>
+  </si>
+  <si>
+    <t>21:53:00</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>00:22:00</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>23:58:00</t>
+  </si>
+  <si>
+    <t>23:05:00</t>
+  </si>
+  <si>
+    <t>00:26:00</t>
+  </si>
+  <si>
+    <t>23:01:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>02:01:00</t>
+  </si>
+  <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>22:53:00</t>
+  </si>
+  <si>
+    <t>23:20:00</t>
+  </si>
+  <si>
+    <t>23:17:00</t>
+  </si>
+  <si>
+    <t>01:09:00</t>
   </si>
   <si>
     <t>Work</t>
@@ -2098,19 +2074,19 @@
         <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2154,19 +2130,19 @@
         <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2204,19 +2180,19 @@
         <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2254,19 +2230,19 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2310,19 +2286,19 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2366,19 +2342,19 @@
         <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7">
         <v>874</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="R7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2422,19 +2398,19 @@
         <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>13</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2478,19 +2454,19 @@
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="R9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2534,19 +2510,19 @@
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10">
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="R10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2590,19 +2566,19 @@
         <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="R11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2646,19 +2622,19 @@
         <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12">
         <v>777</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="R12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2702,19 +2678,19 @@
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="R13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2758,19 +2734,19 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14">
         <v>28482947291</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="R14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2814,13 +2790,13 @@
         <v>696969</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="R15" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2858,19 +2834,19 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16">
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="R16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2908,19 +2884,19 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="R17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2964,19 +2940,19 @@
         <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18">
         <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3020,19 +2996,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19">
         <v>666</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R19" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3076,19 +3052,19 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20">
         <v>4153</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3132,19 +3108,19 @@
         <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21">
         <v>866</v>
       </c>
       <c r="P21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="R21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3188,19 +3164,19 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O22">
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R22" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3244,19 +3220,19 @@
         <v>70</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O23">
         <v>9</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R23" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3306,13 +3282,13 @@
         <v>290</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q24" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R24" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3356,19 +3332,19 @@
         <v>50</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O25">
         <v>182638</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3406,19 +3382,19 @@
         <v>70</v>
       </c>
       <c r="N26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26">
         <v>90</v>
       </c>
       <c r="P26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R26" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3462,19 +3438,19 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27">
         <v>666</v>
       </c>
       <c r="P27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R27" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3518,19 +3494,19 @@
         <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O28">
         <v>11</v>
       </c>
       <c r="P28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R28" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3574,19 +3550,19 @@
         <v>70</v>
       </c>
       <c r="N29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O29">
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3630,19 +3606,19 @@
         <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O30">
         <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="R30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3686,19 +3662,19 @@
         <v>80</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O31">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="R31" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3742,19 +3718,19 @@
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32">
         <v>189572</v>
       </c>
       <c r="P32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="R32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3798,19 +3774,19 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O33">
         <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="R33" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3854,19 +3830,19 @@
         <v>80</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O34">
         <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q34" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="R34" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3910,19 +3886,19 @@
         <v>90</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35">
         <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R35" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3960,19 +3936,19 @@
         <v>30</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O36">
         <v>27</v>
       </c>
       <c r="P36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q36" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="R36" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4016,19 +3992,19 @@
         <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O37">
         <v>25</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q37" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R37" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4072,19 +4048,19 @@
         <v>80</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O38">
         <v>11</v>
       </c>
       <c r="P38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q38" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R38" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4128,19 +4104,19 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O39">
         <v>69</v>
       </c>
       <c r="P39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q39" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="R39" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4184,19 +4160,19 @@
         <v>50</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O40">
         <v>56</v>
       </c>
       <c r="P40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q40" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="R40" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4240,19 +4216,19 @@
         <v>50</v>
       </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O41">
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R41" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4296,19 +4272,19 @@
         <v>40</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O42">
         <v>9</v>
       </c>
       <c r="P42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R42" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4352,19 +4328,19 @@
         <v>90</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O43">
         <v>3</v>
       </c>
       <c r="P43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="R43" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4408,19 +4384,19 @@
         <v>26</v>
       </c>
       <c r="N44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O44">
         <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q44" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="R44" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4464,19 +4440,16 @@
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O45">
         <v>9.87654321123456E+17</v>
       </c>
-      <c r="P45" t="s">
-        <v>26</v>
-      </c>
       <c r="Q45" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="R45" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4514,19 +4487,19 @@
         <v>25</v>
       </c>
       <c r="N46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46">
         <v>66</v>
       </c>
       <c r="P46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q46" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="R46" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4570,19 +4543,19 @@
         <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O47">
         <v>99</v>
       </c>
       <c r="P47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q47" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="R47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4626,19 +4599,19 @@
         <v>30</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O48">
         <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q48" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="R48" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4682,19 +4655,19 @@
         <v>55</v>
       </c>
       <c r="N49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O49">
         <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q49" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="R49" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4738,19 +4711,19 @@
         <v>10</v>
       </c>
       <c r="N50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O50">
         <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q50" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="R50" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4794,19 +4767,19 @@
         <v>70</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O51">
         <v>999</v>
       </c>
       <c r="P51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="R51" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4850,19 +4823,19 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O52">
         <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q52" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="R52" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4906,19 +4879,19 @@
         <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q53" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R53" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4962,19 +4935,19 @@
         <v>55</v>
       </c>
       <c r="N54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O54">
         <v>6</v>
       </c>
       <c r="P54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q54" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="R54" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5018,19 +4991,19 @@
         <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O55">
         <v>69</v>
       </c>
       <c r="P55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q55" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="R55" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5074,19 +5047,19 @@
         <v>50</v>
       </c>
       <c r="N56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O56">
         <v>42</v>
       </c>
       <c r="P56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q56" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R56" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5130,19 +5103,19 @@
         <v>99</v>
       </c>
       <c r="N57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O57">
         <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q57" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R57" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5186,19 +5159,19 @@
         <v>65</v>
       </c>
       <c r="N58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O58">
         <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R58" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5242,19 +5215,19 @@
         <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O59">
         <v>22</v>
       </c>
       <c r="P59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q59" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R59" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5298,19 +5271,19 @@
         <v>30</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60">
         <v>35</v>
       </c>
       <c r="P60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q60" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R60" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5348,19 +5321,19 @@
         <v>26</v>
       </c>
       <c r="N61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O61">
         <v>29</v>
       </c>
       <c r="P61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q61" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="R61" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5404,19 +5377,19 @@
         <v>10</v>
       </c>
       <c r="N62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O62">
         <v>7</v>
       </c>
       <c r="P62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q62" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R62" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5460,19 +5433,19 @@
         <v>35</v>
       </c>
       <c r="N63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O63">
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Q63" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="R63" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5516,19 +5489,19 @@
         <v>17</v>
       </c>
       <c r="N64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O64">
         <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q64" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R64" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5572,19 +5545,19 @@
         <v>98</v>
       </c>
       <c r="N65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O65">
         <v>5</v>
       </c>
       <c r="P65" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q65" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R65" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5628,19 +5601,19 @@
         <v>70</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O66">
         <v>69</v>
       </c>
       <c r="P66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q66" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5684,19 +5657,19 @@
         <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O67">
         <v>5</v>
       </c>
       <c r="P67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q67" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="R67" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5740,19 +5713,19 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O68">
         <v>6</v>
       </c>
       <c r="P68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q68" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="R68" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5790,19 +5763,19 @@
         <v>15</v>
       </c>
       <c r="N69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O69">
         <v>8</v>
       </c>
       <c r="P69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R69" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5846,19 +5819,19 @@
         <v>70</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O70">
         <v>28</v>
       </c>
       <c r="P70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q70" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="R70" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5902,19 +5875,19 @@
         <v>50</v>
       </c>
       <c r="N71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O71">
         <v>3</v>
       </c>
       <c r="P71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q71" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="R71" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5958,19 +5931,19 @@
         <v>60</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O72">
         <v>8</v>
       </c>
       <c r="P72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q72" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R72" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6008,19 +5981,19 @@
         <v>50</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O73">
         <v>99</v>
       </c>
       <c r="P73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q73" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R73" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6064,19 +6037,19 @@
         <v>40</v>
       </c>
       <c r="N74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O74">
         <v>6</v>
       </c>
       <c r="P74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q74" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R74" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6120,19 +6093,19 @@
         <v>26</v>
       </c>
       <c r="N75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q75" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="R75" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6170,19 +6143,19 @@
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O76">
         <v>7556544</v>
       </c>
       <c r="P76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q76" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="R76" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6226,19 +6199,19 @@
         <v>20</v>
       </c>
       <c r="N77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O77">
         <v>26</v>
       </c>
       <c r="P77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q77" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R77" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6276,19 +6249,19 @@
         <v>30</v>
       </c>
       <c r="N78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O78">
         <v>8</v>
       </c>
       <c r="P78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q78" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R78" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -6332,19 +6305,19 @@
         <v>65</v>
       </c>
       <c r="N79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O79">
         <v>69</v>
       </c>
       <c r="P79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q79" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R79" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6388,19 +6361,19 @@
         <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O80">
         <v>69</v>
       </c>
       <c r="P80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="R80" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -6438,19 +6411,19 @@
         <v>10</v>
       </c>
       <c r="N81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O81">
         <v>8</v>
       </c>
       <c r="P81" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q81" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="R81" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -6494,19 +6467,19 @@
         <v>100</v>
       </c>
       <c r="N82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O82">
         <v>7</v>
       </c>
       <c r="P82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q82" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="R82" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -6550,19 +6523,19 @@
         <v>10</v>
       </c>
       <c r="N83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O83">
         <v>936</v>
       </c>
       <c r="P83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q83" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="R83" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6600,19 +6573,19 @@
         <v>99</v>
       </c>
       <c r="N84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O84">
         <v>7</v>
       </c>
       <c r="P84" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q84" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="R84" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6656,19 +6629,19 @@
         <v>66</v>
       </c>
       <c r="N85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="P85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q85" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R85" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6712,19 +6685,19 @@
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O86">
         <v>73837471910183</v>
       </c>
       <c r="P86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q86" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R86" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6762,19 +6735,19 @@
         <v>51</v>
       </c>
       <c r="N87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O87">
         <v>42</v>
       </c>
       <c r="P87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q87" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="R87" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6818,19 +6791,19 @@
         <v>40</v>
       </c>
       <c r="N88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O88">
         <v>18</v>
       </c>
       <c r="P88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q88" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R88" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6868,19 +6841,19 @@
         <v>26</v>
       </c>
       <c r="N89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O89">
         <v>1337</v>
       </c>
       <c r="P89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q89" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="R89" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6924,19 +6897,19 @@
         <v>15</v>
       </c>
       <c r="N90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O90">
         <v>9</v>
       </c>
       <c r="P90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q90" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R90" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6980,19 +6953,19 @@
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O91">
         <v>8</v>
       </c>
       <c r="P91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q91" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="R91" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7036,19 +7009,19 @@
         <v>15</v>
       </c>
       <c r="N92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O92">
         <v>56</v>
       </c>
       <c r="P92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q92" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="R92" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7086,19 +7059,19 @@
         <v>75</v>
       </c>
       <c r="N93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O93">
         <v>3</v>
       </c>
       <c r="P93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q93" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="R93" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7142,19 +7115,19 @@
         <v>40</v>
       </c>
       <c r="N94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P94" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q94" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R94" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7198,19 +7171,19 @@
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O95">
         <v>6</v>
       </c>
       <c r="P95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q95" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R95" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -7254,19 +7227,19 @@
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O96">
         <v>6</v>
       </c>
       <c r="P96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q96" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R96" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -7310,19 +7283,16 @@
         <v>90</v>
       </c>
       <c r="N97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O97" t="s">
-        <v>59</v>
-      </c>
-      <c r="P97" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="Q97" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="R97" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -7360,19 +7330,19 @@
         <v>99</v>
       </c>
       <c r="N98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O98">
         <v>42</v>
       </c>
       <c r="P98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q98" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R98" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -7410,19 +7380,19 @@
         <v>65</v>
       </c>
       <c r="N99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O99">
         <v>1827</v>
       </c>
       <c r="P99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q99" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="R99" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -7466,19 +7436,19 @@
         <v>26</v>
       </c>
       <c r="N100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O100">
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q100" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="R100" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -7522,19 +7492,19 @@
         <v>70</v>
       </c>
       <c r="N101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O101">
         <v>536</v>
       </c>
       <c r="P101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q101" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R101" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -7572,19 +7542,19 @@
         <v>50</v>
       </c>
       <c r="N102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O102">
         <v>8</v>
       </c>
       <c r="P102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q102" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="R102" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -7628,19 +7598,19 @@
         <v>9</v>
       </c>
       <c r="N103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q103" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R103" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7678,19 +7648,19 @@
         <v>50</v>
       </c>
       <c r="N104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O104">
         <v>7</v>
       </c>
       <c r="P104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q104" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="R104" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7734,19 +7704,19 @@
         <v>70</v>
       </c>
       <c r="N105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O105">
         <v>9997655</v>
       </c>
       <c r="P105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q105" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R105" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7784,19 +7754,19 @@
         <v>70</v>
       </c>
       <c r="N106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O106">
         <v>7</v>
       </c>
       <c r="P106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q106" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="R106" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7840,19 +7810,19 @@
         <v>86</v>
       </c>
       <c r="N107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O107">
         <v>7</v>
       </c>
       <c r="P107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="R107" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7896,19 +7866,19 @@
         <v>85</v>
       </c>
       <c r="N108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O108">
         <v>3840</v>
       </c>
       <c r="P108" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q108" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="R108" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7946,16 +7916,16 @@
         <v>99</v>
       </c>
       <c r="N109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q109" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7999,19 +7969,19 @@
         <v>69</v>
       </c>
       <c r="N110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O110">
         <v>28</v>
       </c>
       <c r="P110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q110" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R110" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -8049,19 +8019,19 @@
         <v>100</v>
       </c>
       <c r="N111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O111">
         <v>9</v>
       </c>
       <c r="P111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q111" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R111" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -8105,19 +8075,19 @@
         <v>68</v>
       </c>
       <c r="N112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O112">
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q112" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R112" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -8161,19 +8131,19 @@
         <v>10</v>
       </c>
       <c r="N113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O113">
         <v>99</v>
       </c>
       <c r="P113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q113" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R113" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -8217,19 +8187,19 @@
         <v>30</v>
       </c>
       <c r="N114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O114">
         <v>9</v>
       </c>
       <c r="P114" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q114" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R114" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -8273,19 +8243,19 @@
         <v>43</v>
       </c>
       <c r="N115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O115">
         <v>37</v>
       </c>
       <c r="P115" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q115" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="R115" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -8329,19 +8299,19 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q116" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R116" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -8385,19 +8355,19 @@
         <v>22</v>
       </c>
       <c r="N117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O117">
         <v>58</v>
       </c>
       <c r="P117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q117" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="R117" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -8435,19 +8405,19 @@
         <v>62</v>
       </c>
       <c r="N118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O118">
         <v>27922261</v>
       </c>
       <c r="P118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q118" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="R118" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -8485,19 +8455,19 @@
         <v>99</v>
       </c>
       <c r="N119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O119">
         <v>7</v>
       </c>
       <c r="P119" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q119" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R119" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -8541,19 +8511,19 @@
         <v>60</v>
       </c>
       <c r="N120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q120" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R120" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -8597,19 +8567,19 @@
         <v>40</v>
       </c>
       <c r="N121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O121">
         <v>21</v>
       </c>
       <c r="P121" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q121" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R121" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -8647,19 +8617,19 @@
         <v>100</v>
       </c>
       <c r="N122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O122">
         <v>3</v>
       </c>
       <c r="P122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q122" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="R122" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -8703,19 +8673,19 @@
         <v>10</v>
       </c>
       <c r="N123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P123" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q123" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R123" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -8759,19 +8729,19 @@
         <v>30</v>
       </c>
       <c r="N124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O124">
         <v>42</v>
       </c>
       <c r="P124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q124" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R124" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8815,19 +8785,19 @@
         <v>60</v>
       </c>
       <c r="N125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O125">
         <v>6721</v>
       </c>
       <c r="P125" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q125" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="R125" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8871,19 +8841,19 @@
         <v>26</v>
       </c>
       <c r="N126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O126">
         <v>7</v>
       </c>
       <c r="P126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q126" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R126" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8927,19 +8897,19 @@
         <v>74</v>
       </c>
       <c r="N127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O127">
         <v>623</v>
       </c>
       <c r="P127" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q127" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R127" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8983,19 +8953,19 @@
         <v>45</v>
       </c>
       <c r="N128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O128">
         <v>72</v>
       </c>
       <c r="P128" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="Q128" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="R128" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -9039,19 +9009,19 @@
         <v>15</v>
       </c>
       <c r="N129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O129">
         <v>158295726</v>
       </c>
       <c r="P129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q129" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R129" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -9095,19 +9065,19 @@
         <v>80</v>
       </c>
       <c r="N130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O130">
         <v>88</v>
       </c>
       <c r="P130" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q130" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R130" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -9151,19 +9121,16 @@
         <v>65</v>
       </c>
       <c r="N131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O131">
         <v>69</v>
       </c>
-      <c r="P131" t="s">
-        <v>26</v>
-      </c>
       <c r="Q131" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="R131" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -9207,19 +9174,19 @@
         <v>26</v>
       </c>
       <c r="N132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O132">
         <v>4</v>
       </c>
       <c r="P132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q132" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="R132" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -9263,19 +9230,19 @@
         <v>40</v>
       </c>
       <c r="N133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O133">
         <v>68</v>
       </c>
       <c r="P133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q133" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R133" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -9319,19 +9286,19 @@
         <v>20</v>
       </c>
       <c r="N134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O134">
         <v>4</v>
       </c>
       <c r="P134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q134" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="R134" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -9375,19 +9342,19 @@
         <v>15</v>
       </c>
       <c r="N135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q135" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="R135" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -9425,19 +9392,19 @@
         <v>23</v>
       </c>
       <c r="N136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O136">
         <v>23</v>
       </c>
       <c r="P136" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q136" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="R136" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -9481,19 +9448,19 @@
         <v>20</v>
       </c>
       <c r="N137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O137">
         <v>8</v>
       </c>
       <c r="P137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q137" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="R137" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -9531,19 +9498,19 @@
         <v>85</v>
       </c>
       <c r="N138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O138">
         <v>3</v>
       </c>
       <c r="P138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q138" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R138" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -9587,19 +9554,19 @@
         <v>99</v>
       </c>
       <c r="N139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O139">
         <v>7</v>
       </c>
       <c r="P139" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q139" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="R139" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -9637,19 +9604,19 @@
         <v>50</v>
       </c>
       <c r="N140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O140">
         <v>4793374949</v>
       </c>
       <c r="P140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q140" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="R140" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -9693,19 +9660,19 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O141">
         <v>59</v>
       </c>
       <c r="P141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q141" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="R141" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -9713,7 +9680,7 @@
         <v>45020.50773703703</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -9749,19 +9716,19 @@
         <v>95</v>
       </c>
       <c r="N142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O142">
         <v>8</v>
       </c>
       <c r="P142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q142" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="R142" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -9805,19 +9772,19 @@
         <v>6</v>
       </c>
       <c r="N143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O143">
         <v>7</v>
       </c>
       <c r="P143" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="Q143" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="R143" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -9855,19 +9822,19 @@
         <v>10</v>
       </c>
       <c r="N144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O144">
         <v>63</v>
       </c>
       <c r="P144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q144" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="R144" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9905,19 +9872,19 @@
         <v>10</v>
       </c>
       <c r="N145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O145">
         <v>6</v>
       </c>
       <c r="P145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q145" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9961,19 +9928,19 @@
         <v>70</v>
       </c>
       <c r="N146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O146">
         <v>6</v>
       </c>
       <c r="P146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q146" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R146" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -10011,19 +9978,19 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O147">
         <v>29</v>
       </c>
       <c r="P147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q147" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="R147" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -10067,19 +10034,19 @@
         <v>8</v>
       </c>
       <c r="N148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O148">
         <v>42</v>
       </c>
       <c r="P148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q148" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="R148" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -10117,19 +10084,19 @@
         <v>50</v>
       </c>
       <c r="N149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O149">
         <v>33</v>
       </c>
       <c r="P149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q149" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="R149" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -10173,19 +10140,19 @@
         <v>25</v>
       </c>
       <c r="N150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O150">
         <v>420</v>
       </c>
       <c r="P150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q150" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="R150" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -10229,19 +10196,19 @@
         <v>10</v>
       </c>
       <c r="N151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O151">
         <v>5</v>
       </c>
       <c r="P151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q151" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="R151" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -10285,19 +10252,19 @@
         <v>30</v>
       </c>
       <c r="N152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O152">
         <v>73</v>
       </c>
       <c r="P152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q152" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="R152" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -10335,19 +10302,19 @@
         <v>10</v>
       </c>
       <c r="N153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O153">
         <v>2</v>
       </c>
       <c r="P153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q153" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R153" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -10391,19 +10358,19 @@
         <v>90</v>
       </c>
       <c r="N154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O154">
         <v>12</v>
       </c>
       <c r="P154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q154" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R154" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -10447,19 +10414,19 @@
         <v>90</v>
       </c>
       <c r="N155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O155">
         <v>420</v>
       </c>
       <c r="P155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q155" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="R155" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -10497,19 +10464,19 @@
         <v>80</v>
       </c>
       <c r="N156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O156">
         <v>4</v>
       </c>
       <c r="P156" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q156" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="R156" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -10553,19 +10520,19 @@
         <v>26</v>
       </c>
       <c r="N157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O157" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P157" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q157" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R157" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -10609,19 +10576,19 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O158">
         <v>5</v>
       </c>
       <c r="P158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q158" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="R158" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -10665,19 +10632,19 @@
         <v>20</v>
       </c>
       <c r="N159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O159">
         <v>23</v>
       </c>
       <c r="P159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q159" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="R159" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -10721,19 +10688,19 @@
         <v>26</v>
       </c>
       <c r="N160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O160">
         <v>53645936</v>
       </c>
       <c r="P160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q160" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="R160" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -10777,19 +10744,19 @@
         <v>26</v>
       </c>
       <c r="N161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O161">
         <v>314159</v>
       </c>
       <c r="P161" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q161" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R161" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -10833,19 +10800,19 @@
         <v>75</v>
       </c>
       <c r="N162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O162">
         <v>7362562722</v>
       </c>
       <c r="P162" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q162" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="R162" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -10889,19 +10856,19 @@
         <v>20</v>
       </c>
       <c r="N163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O163">
         <v>67</v>
       </c>
       <c r="P163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q163" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R163" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -10945,19 +10912,19 @@
         <v>99</v>
       </c>
       <c r="N164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O164">
         <v>6</v>
       </c>
       <c r="P164" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q164" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="R164" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -11001,19 +10968,19 @@
         <v>65</v>
       </c>
       <c r="N165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O165">
         <v>4</v>
       </c>
       <c r="P165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q165" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="R165" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -11057,19 +11024,19 @@
         <v>20</v>
       </c>
       <c r="N166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O166">
         <v>3</v>
       </c>
       <c r="P166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q166" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="R166" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -11113,19 +11080,19 @@
         <v>45</v>
       </c>
       <c r="N167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O167">
         <v>3</v>
       </c>
       <c r="P167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q167" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="R167" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -11163,19 +11130,19 @@
         <v>7</v>
       </c>
       <c r="N168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O168">
         <v>7</v>
       </c>
       <c r="P168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q168" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="R168" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -11219,19 +11186,19 @@
         <v>50</v>
       </c>
       <c r="N169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O169">
         <v>73</v>
       </c>
       <c r="P169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q169" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="R169" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -11275,19 +11242,19 @@
         <v>60</v>
       </c>
       <c r="N170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O170">
         <v>27</v>
       </c>
       <c r="P170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q170" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="R170" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -11331,19 +11298,19 @@
         <v>60</v>
       </c>
       <c r="N171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O171">
         <v>3</v>
       </c>
       <c r="P171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q171" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R171" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -11351,7 +11318,7 @@
         <v>45020.50785131945</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11387,19 +11354,19 @@
         <v>20</v>
       </c>
       <c r="N172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O172">
         <v>7</v>
       </c>
       <c r="P172" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q172" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="R172" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -11443,19 +11410,19 @@
         <v>70</v>
       </c>
       <c r="N173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O173">
         <v>9</v>
       </c>
       <c r="P173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q173" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="R173" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -11493,19 +11460,19 @@
         <v>26</v>
       </c>
       <c r="N174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O174">
         <v>9</v>
       </c>
       <c r="P174" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q174" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="R174" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -11549,19 +11516,19 @@
         <v>99</v>
       </c>
       <c r="N175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O175">
         <v>666</v>
       </c>
       <c r="P175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q175" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="R175" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -11599,19 +11566,19 @@
         <v>100</v>
       </c>
       <c r="N176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O176">
         <v>7</v>
       </c>
       <c r="P176" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q176" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="R176" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -11655,19 +11622,19 @@
         <v>5</v>
       </c>
       <c r="N177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O177">
         <v>3</v>
       </c>
       <c r="P177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q177" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="R177" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -11675,7 +11642,7 @@
         <v>45020.50785996528</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -11711,19 +11678,19 @@
         <v>90</v>
       </c>
       <c r="N178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O178">
         <v>8</v>
       </c>
       <c r="P178" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q178" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="R178" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -11761,19 +11728,19 @@
         <v>100</v>
       </c>
       <c r="N179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O179">
         <v>20</v>
       </c>
       <c r="P179" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q179" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="R179" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -11811,19 +11778,16 @@
         <v>100</v>
       </c>
       <c r="N180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O180">
         <v>0</v>
       </c>
-      <c r="P180" t="s">
-        <v>26</v>
-      </c>
       <c r="Q180" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="R180" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -11867,19 +11831,19 @@
         <v>60</v>
       </c>
       <c r="N181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O181">
         <v>7</v>
       </c>
       <c r="P181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q181" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="R181" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11923,19 +11887,19 @@
         <v>30</v>
       </c>
       <c r="N182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O182">
         <v>6</v>
       </c>
       <c r="P182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q182" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="R182" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -11973,19 +11937,19 @@
         <v>85</v>
       </c>
       <c r="N183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O183">
         <v>420</v>
       </c>
       <c r="P183" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q183" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="R183" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -12029,19 +11993,19 @@
         <v>60</v>
       </c>
       <c r="N184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O184">
         <v>55</v>
       </c>
       <c r="P184" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q184" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R184" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -12085,19 +12049,19 @@
         <v>73</v>
       </c>
       <c r="N185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O185">
         <v>73</v>
       </c>
       <c r="P185" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q185" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="R185" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -12141,19 +12105,19 @@
         <v>5</v>
       </c>
       <c r="N186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O186">
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q186" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="R186" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -12197,19 +12161,19 @@
         <v>5</v>
       </c>
       <c r="N187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O187">
         <v>333</v>
       </c>
       <c r="P187" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q187" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="R187" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -12253,19 +12217,19 @@
         <v>25</v>
       </c>
       <c r="N188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O188">
         <v>18364</v>
       </c>
       <c r="P188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q188" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="R188" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -12309,19 +12273,19 @@
         <v>5</v>
       </c>
       <c r="N189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O189">
         <v>46372726</v>
       </c>
       <c r="P189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q189" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="R189" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -12359,19 +12323,19 @@
         <v>100</v>
       </c>
       <c r="N190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O190" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P190" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q190" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="R190" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -12415,19 +12379,19 @@
         <v>50</v>
       </c>
       <c r="N191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O191">
         <v>2022222</v>
       </c>
       <c r="P191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q191" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="R191" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -12465,19 +12429,16 @@
         <v>26</v>
       </c>
       <c r="N192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O192">
         <v>99</v>
       </c>
-      <c r="P192" t="s">
-        <v>26</v>
-      </c>
       <c r="Q192" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="R192" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -12521,19 +12482,19 @@
         <v>11</v>
       </c>
       <c r="N193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O193">
         <v>237948422</v>
       </c>
       <c r="P193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q193" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="R193" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -12577,19 +12538,19 @@
         <v>40</v>
       </c>
       <c r="N194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O194">
         <v>17</v>
       </c>
       <c r="P194" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q194" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R194" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -12627,19 +12588,19 @@
         <v>5</v>
       </c>
       <c r="N195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O195">
         <v>5</v>
       </c>
       <c r="P195" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q195" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="R195" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -12677,19 +12638,19 @@
         <v>69</v>
       </c>
       <c r="N196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O196">
         <v>69</v>
       </c>
       <c r="P196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q196" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R196" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -12733,19 +12694,19 @@
         <v>39</v>
       </c>
       <c r="N197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O197">
         <v>13</v>
       </c>
       <c r="P197" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q197" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R197" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -12789,19 +12750,19 @@
         <v>50</v>
       </c>
       <c r="N198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O198">
         <v>24</v>
       </c>
       <c r="P198" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q198" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R198" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -12845,19 +12806,19 @@
         <v>68</v>
       </c>
       <c r="N199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O199">
         <v>17</v>
       </c>
       <c r="P199" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q199" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R199" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -12901,19 +12862,19 @@
         <v>80</v>
       </c>
       <c r="N200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O200">
         <v>8</v>
       </c>
       <c r="P200" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q200" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="R200" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -12951,19 +12912,19 @@
         <v>70</v>
       </c>
       <c r="N201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O201">
         <v>119</v>
       </c>
       <c r="P201" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q201" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="R201" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -13007,19 +12968,19 @@
         <v>70</v>
       </c>
       <c r="N202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O202">
         <v>45</v>
       </c>
       <c r="P202" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q202" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="R202" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -13063,19 +13024,19 @@
         <v>40</v>
       </c>
       <c r="N203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O203">
         <v>9</v>
       </c>
       <c r="P203" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="Q203" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="R203" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -13119,19 +13080,19 @@
         <v>100</v>
       </c>
       <c r="N204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O204">
         <v>886</v>
       </c>
       <c r="P204" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q204" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="R204" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -13175,19 +13136,19 @@
         <v>18</v>
       </c>
       <c r="N205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O205">
         <v>68</v>
       </c>
       <c r="P205" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q205" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R205" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -13231,19 +13192,19 @@
         <v>31</v>
       </c>
       <c r="N206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O206">
         <v>99</v>
       </c>
       <c r="P206" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q206" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R206" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -13287,19 +13248,19 @@
         <v>98</v>
       </c>
       <c r="N207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O207">
         <v>6</v>
       </c>
       <c r="P207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q207" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="R207" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -13343,19 +13304,19 @@
         <v>80</v>
       </c>
       <c r="N208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O208">
         <v>3</v>
       </c>
       <c r="P208" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q208" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="R208" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -13399,19 +13360,19 @@
         <v>80</v>
       </c>
       <c r="N209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O209">
         <v>69420</v>
       </c>
       <c r="P209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q209" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="R209" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -13449,19 +13410,19 @@
         <v>60</v>
       </c>
       <c r="N210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O210">
         <v>4</v>
       </c>
       <c r="P210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q210" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="R210" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -13505,19 +13466,19 @@
         <v>10</v>
       </c>
       <c r="N211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O211">
         <v>72</v>
       </c>
       <c r="P211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q211" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R211" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -13561,19 +13522,19 @@
         <v>20</v>
       </c>
       <c r="N212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O212">
         <v>17</v>
       </c>
       <c r="P212" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q212" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="R212" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -13617,19 +13578,19 @@
         <v>30</v>
       </c>
       <c r="N213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O213">
         <v>27</v>
       </c>
       <c r="P213" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q213" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="R213" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -13637,7 +13598,7 @@
         <v>45020.5079768287</v>
       </c>
       <c r="B214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -13673,19 +13634,19 @@
         <v>15</v>
       </c>
       <c r="N214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O214">
         <v>8</v>
       </c>
       <c r="P214" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q214" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R214" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -13729,19 +13690,19 @@
         <v>30</v>
       </c>
       <c r="N215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O215">
         <v>2</v>
       </c>
       <c r="P215" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q215" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R215" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -13779,19 +13740,19 @@
         <v>99</v>
       </c>
       <c r="N216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O216">
         <v>3</v>
       </c>
       <c r="P216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q216" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="R216" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -13835,19 +13796,19 @@
         <v>30</v>
       </c>
       <c r="N217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O217">
         <v>69</v>
       </c>
       <c r="P217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q217" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="R217" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -13891,19 +13852,19 @@
         <v>33</v>
       </c>
       <c r="N218" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O218">
         <v>37</v>
       </c>
       <c r="P218" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q218" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="R218" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -13941,19 +13902,19 @@
         <v>30</v>
       </c>
       <c r="N219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O219" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P219" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q219" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="R219" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -13997,19 +13958,19 @@
         <v>70</v>
       </c>
       <c r="N220" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O220">
         <v>98</v>
       </c>
       <c r="P220" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q220" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R220" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -14053,19 +14014,19 @@
         <v>60</v>
       </c>
       <c r="N221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O221">
         <v>7</v>
       </c>
       <c r="P221" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q221" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R221" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -14103,19 +14064,19 @@
         <v>20</v>
       </c>
       <c r="N222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O222">
         <v>7</v>
       </c>
       <c r="P222" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q222" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="R222" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -14159,19 +14120,19 @@
         <v>10</v>
       </c>
       <c r="N223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O223">
         <v>14</v>
       </c>
       <c r="P223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q223" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R223" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -14215,19 +14176,19 @@
         <v>26</v>
       </c>
       <c r="N224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O224">
         <v>69</v>
       </c>
       <c r="P224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q224" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R224" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -14265,19 +14226,19 @@
         <v>30</v>
       </c>
       <c r="N225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O225">
         <v>73</v>
       </c>
       <c r="P225" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q225" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="R225" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -14321,19 +14282,19 @@
         <v>30</v>
       </c>
       <c r="N226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O226">
         <v>69</v>
       </c>
       <c r="P226" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q226" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="R226" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -14371,19 +14332,19 @@
         <v>60</v>
       </c>
       <c r="N227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O227">
         <v>101</v>
       </c>
       <c r="P227" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q227" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="R227" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -14427,19 +14388,19 @@
         <v>60</v>
       </c>
       <c r="N228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O228">
         <v>9</v>
       </c>
       <c r="P228" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q228" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="R228" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -14477,19 +14438,19 @@
         <v>26</v>
       </c>
       <c r="N229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O229">
         <v>4579</v>
       </c>
       <c r="P229" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q229" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R229" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -14533,19 +14494,19 @@
         <v>60</v>
       </c>
       <c r="N230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O230">
         <v>11</v>
       </c>
       <c r="P230" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q230" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R230" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -14589,19 +14550,19 @@
         <v>70</v>
       </c>
       <c r="N231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O231">
         <v>8798</v>
       </c>
       <c r="P231" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q231" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="R231" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -14645,19 +14606,19 @@
         <v>50</v>
       </c>
       <c r="N232" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O232">
         <v>76</v>
       </c>
       <c r="P232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q232" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="R232" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -14695,19 +14656,19 @@
         <v>1</v>
       </c>
       <c r="N233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O233">
         <v>56784</v>
       </c>
       <c r="P233" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q233" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="R233" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -14751,19 +14712,19 @@
         <v>20</v>
       </c>
       <c r="N234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O234">
         <v>9</v>
       </c>
       <c r="P234" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q234" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R234" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -14807,19 +14768,16 @@
         <v>50</v>
       </c>
       <c r="N235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O235">
         <v>123008483</v>
       </c>
-      <c r="P235" t="s">
-        <v>26</v>
-      </c>
       <c r="Q235" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="R235" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -14863,19 +14821,19 @@
         <v>26</v>
       </c>
       <c r="N236" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O236" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q236" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="R236" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -14919,19 +14877,19 @@
         <v>26</v>
       </c>
       <c r="N237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O237">
         <v>5</v>
       </c>
       <c r="P237" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q237" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="R237" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -14975,19 +14933,19 @@
         <v>25</v>
       </c>
       <c r="N238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O238">
         <v>15</v>
       </c>
       <c r="P238" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q238" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="R238" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -15028,16 +14986,13 @@
         <v>26</v>
       </c>
       <c r="O239" t="s">
-        <v>67</v>
-      </c>
-      <c r="P239" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="Q239" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="R239" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -15081,19 +15036,16 @@
         <v>69</v>
       </c>
       <c r="N240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O240">
         <v>420</v>
       </c>
-      <c r="P240" t="s">
-        <v>26</v>
-      </c>
       <c r="Q240" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="R240" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -15137,19 +15089,19 @@
         <v>0</v>
       </c>
       <c r="N241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O241" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P241" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q241" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="R241" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -15193,19 +15145,19 @@
         <v>20</v>
       </c>
       <c r="N242" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O242">
         <v>37</v>
       </c>
       <c r="P242" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q242" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R242" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -15249,19 +15201,19 @@
         <v>15</v>
       </c>
       <c r="N243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O243">
         <v>16</v>
       </c>
       <c r="P243" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q243" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="R243" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -15299,19 +15251,19 @@
         <v>2</v>
       </c>
       <c r="N244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O244">
         <v>4</v>
       </c>
       <c r="P244" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q244" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="R244" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -15355,19 +15307,19 @@
         <v>70</v>
       </c>
       <c r="N245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O245">
         <v>9</v>
       </c>
       <c r="P245" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q245" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="R245" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -15405,19 +15357,19 @@
         <v>70</v>
       </c>
       <c r="N246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O246">
         <v>7</v>
       </c>
       <c r="P246" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q246" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="R246" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -15461,19 +15413,19 @@
         <v>20</v>
       </c>
       <c r="N247" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O247">
         <v>666</v>
       </c>
       <c r="P247" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q247" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="R247" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -15511,19 +15463,19 @@
         <v>0</v>
       </c>
       <c r="N248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O248">
         <v>3</v>
       </c>
       <c r="P248" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q248" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="R248" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -15567,19 +15519,19 @@
         <v>65</v>
       </c>
       <c r="N249" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O249">
         <v>4</v>
       </c>
       <c r="P249" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q249" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R249" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -15617,19 +15569,19 @@
         <v>80</v>
       </c>
       <c r="N250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O250">
         <v>94</v>
       </c>
       <c r="P250" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q250" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="R250" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -15667,19 +15619,19 @@
         <v>88</v>
       </c>
       <c r="N251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O251">
         <v>77</v>
       </c>
       <c r="P251" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="Q251" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R251" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -15723,19 +15675,19 @@
         <v>80</v>
       </c>
       <c r="N252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q252" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="R252" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -15773,19 +15725,19 @@
         <v>26</v>
       </c>
       <c r="N253" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O253" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P253" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q253" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="R253" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -15823,19 +15775,19 @@
         <v>50</v>
       </c>
       <c r="N254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O254">
         <v>16533333</v>
       </c>
       <c r="P254" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q254" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R254" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -15879,19 +15831,19 @@
         <v>7</v>
       </c>
       <c r="N255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O255">
         <v>82</v>
       </c>
       <c r="P255" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q255" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="R255" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -15929,19 +15881,19 @@
         <v>0</v>
       </c>
       <c r="N256" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O256">
         <v>11</v>
       </c>
       <c r="P256" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q256" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="R256" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -15949,7 +15901,7 @@
         <v>45020.50820703703</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -15979,19 +15931,16 @@
         <v>26</v>
       </c>
       <c r="N257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O257" t="s">
-        <v>70</v>
-      </c>
-      <c r="P257" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="Q257" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="R257" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -16029,19 +15978,19 @@
         <v>60</v>
       </c>
       <c r="N258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O258">
         <v>214876378</v>
       </c>
       <c r="P258" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q258" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R258" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -16085,19 +16034,19 @@
         <v>33</v>
       </c>
       <c r="N259" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O259">
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q259" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R259" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -16141,19 +16090,19 @@
         <v>17</v>
       </c>
       <c r="N260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O260">
         <v>2323</v>
       </c>
       <c r="P260" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q260" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R260" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -16197,19 +16146,19 @@
         <v>40</v>
       </c>
       <c r="N261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O261">
         <v>12</v>
       </c>
       <c r="P261" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q261" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R261" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -16253,19 +16202,19 @@
         <v>40</v>
       </c>
       <c r="N262" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O262">
         <v>2</v>
       </c>
       <c r="P262" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q262" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="R262" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -16309,19 +16258,19 @@
         <v>100</v>
       </c>
       <c r="N263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O263">
         <v>8512</v>
       </c>
       <c r="P263" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q263" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R263" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -16359,19 +16308,19 @@
         <v>20</v>
       </c>
       <c r="N264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O264">
         <v>37</v>
       </c>
       <c r="P264" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q264" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="R264" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -16418,16 +16367,13 @@
         <v>26</v>
       </c>
       <c r="O265" t="s">
-        <v>71</v>
-      </c>
-      <c r="P265" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="Q265" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R265" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -16465,19 +16411,19 @@
         <v>60</v>
       </c>
       <c r="N266" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O266">
         <v>42</v>
       </c>
       <c r="P266" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q266" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R266" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -16515,19 +16461,19 @@
         <v>0</v>
       </c>
       <c r="N267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O267">
         <v>68</v>
       </c>
       <c r="P267" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q267" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="R267" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -16535,7 +16481,7 @@
         <v>45020.50835628472</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16571,19 +16517,19 @@
         <v>75</v>
       </c>
       <c r="N268" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O268">
         <v>24</v>
       </c>
       <c r="P268" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q268" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R268" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -16627,19 +16573,19 @@
         <v>53</v>
       </c>
       <c r="N269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O269">
         <v>69</v>
       </c>
       <c r="P269" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q269" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="R269" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -16677,19 +16623,19 @@
         <v>10</v>
       </c>
       <c r="N270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O270" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P270" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q270" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="R270" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -16727,19 +16673,19 @@
         <v>26</v>
       </c>
       <c r="N271" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O271">
         <v>13</v>
       </c>
       <c r="P271" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q271" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="R271" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -16783,19 +16729,19 @@
         <v>20</v>
       </c>
       <c r="N272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O272">
         <v>69420</v>
       </c>
       <c r="P272" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q272" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="R272" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -16839,19 +16785,19 @@
         <v>80</v>
       </c>
       <c r="N273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O273">
         <v>3141592654</v>
       </c>
       <c r="P273" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q273" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R273" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -16889,19 +16835,19 @@
         <v>75</v>
       </c>
       <c r="N274" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O274">
         <v>42</v>
       </c>
       <c r="P274" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q274" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="R274" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -16945,19 +16891,19 @@
         <v>20</v>
       </c>
       <c r="N275" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O275">
         <v>4</v>
       </c>
       <c r="P275" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q275" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="R275" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -16995,19 +16941,19 @@
         <v>10</v>
       </c>
       <c r="N276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O276">
         <v>1.74992743767171E+203</v>
       </c>
       <c r="P276" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q276" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R276" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -17051,19 +16997,19 @@
         <v>25</v>
       </c>
       <c r="N277" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O277">
         <v>3</v>
       </c>
       <c r="P277" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q277" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="R277" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -17107,19 +17053,19 @@
         <v>44</v>
       </c>
       <c r="N278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O278">
         <v>7</v>
       </c>
       <c r="P278" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q278" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="R278" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -17163,19 +17109,19 @@
         <v>75</v>
       </c>
       <c r="N279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O279">
         <v>373629566</v>
       </c>
       <c r="P279" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q279" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R279" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -17183,7 +17129,7 @@
         <v>45020.50852783565</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17219,19 +17165,19 @@
         <v>60</v>
       </c>
       <c r="N280" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O280">
         <v>3</v>
       </c>
       <c r="P280" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q280" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="R280" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -17275,19 +17221,19 @@
         <v>25</v>
       </c>
       <c r="N281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O281">
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q281" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="R281" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -17331,19 +17277,19 @@
         <v>0</v>
       </c>
       <c r="N282" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O282">
         <v>7</v>
       </c>
       <c r="P282" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q282" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="R282" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -17381,19 +17327,19 @@
         <v>70</v>
       </c>
       <c r="N283" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O283">
         <v>8</v>
       </c>
       <c r="P283" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q283" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="R283" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -17431,19 +17377,19 @@
         <v>56</v>
       </c>
       <c r="N284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O284">
         <v>146</v>
       </c>
       <c r="P284" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q284" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="R284" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -17481,19 +17427,19 @@
         <v>66</v>
       </c>
       <c r="N285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O285" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P285" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q285" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R285" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -17537,19 +17483,19 @@
         <v>69</v>
       </c>
       <c r="N286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O286">
         <v>1234567890</v>
       </c>
       <c r="P286" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q286" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R286" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -17593,19 +17539,19 @@
         <v>1</v>
       </c>
       <c r="N287" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O287">
         <v>51</v>
       </c>
       <c r="P287" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q287" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="R287" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -17649,19 +17595,19 @@
         <v>90</v>
       </c>
       <c r="N288" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O288">
         <v>7</v>
       </c>
       <c r="P288" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q288" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="R288" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -17705,19 +17651,19 @@
         <v>50</v>
       </c>
       <c r="N289" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O289">
         <v>2</v>
       </c>
       <c r="P289" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q289" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R289" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -17761,19 +17707,19 @@
         <v>99</v>
       </c>
       <c r="N290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O290">
         <v>7</v>
       </c>
       <c r="P290" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q290" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R290" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -17817,19 +17763,19 @@
         <v>0</v>
       </c>
       <c r="N291" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O291">
         <v>2</v>
       </c>
       <c r="P291" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q291" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="R291" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -17867,19 +17813,19 @@
         <v>10</v>
       </c>
       <c r="N292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O292" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P292" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q292" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="R292" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -17917,19 +17863,19 @@
         <v>50</v>
       </c>
       <c r="N293" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O293">
         <v>114514</v>
       </c>
       <c r="P293" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q293" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R293" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -17973,19 +17919,19 @@
         <v>20</v>
       </c>
       <c r="N294" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O294">
         <v>2020</v>
       </c>
       <c r="P294" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q294" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="R294" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -18029,19 +17975,19 @@
         <v>15</v>
       </c>
       <c r="N295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O295">
         <v>47</v>
       </c>
       <c r="P295" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q295" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="R295" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -18085,19 +18031,19 @@
         <v>57</v>
       </c>
       <c r="N296" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O296">
         <v>9</v>
       </c>
       <c r="P296" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q296" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R296" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -18135,19 +18081,19 @@
         <v>60</v>
       </c>
       <c r="N297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O297">
         <v>8108918957834</v>
       </c>
       <c r="P297" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q297" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="R297" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -18191,19 +18137,19 @@
         <v>30</v>
       </c>
       <c r="N298" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O298">
         <v>748</v>
       </c>
       <c r="P298" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q298" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="R298" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -18241,19 +18187,19 @@
         <v>28</v>
       </c>
       <c r="N299" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O299">
         <v>7</v>
       </c>
       <c r="P299" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q299" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R299" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -18297,19 +18243,19 @@
         <v>45</v>
       </c>
       <c r="N300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O300">
         <v>28</v>
       </c>
       <c r="P300" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q300" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="R300" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -18353,19 +18299,19 @@
         <v>80</v>
       </c>
       <c r="N301" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O301">
         <v>69</v>
       </c>
       <c r="P301" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q301" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="R301" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -18409,19 +18355,19 @@
         <v>70</v>
       </c>
       <c r="N302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O302">
         <v>67</v>
       </c>
       <c r="P302" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q302" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="R302" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -18465,19 +18411,19 @@
         <v>70</v>
       </c>
       <c r="N303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O303">
         <v>13</v>
       </c>
       <c r="P303" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q303" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="R303" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -18515,19 +18461,19 @@
         <v>10</v>
       </c>
       <c r="N304" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O304">
         <v>18</v>
       </c>
       <c r="P304" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q304" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="R304" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -18574,16 +18520,13 @@
         <v>26</v>
       </c>
       <c r="O305" t="s">
-        <v>75</v>
-      </c>
-      <c r="P305" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="Q305" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="R305" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -18621,19 +18564,19 @@
         <v>80</v>
       </c>
       <c r="N306" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O306">
         <v>10</v>
       </c>
       <c r="P306" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q306" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="R306" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/new_data_before_miss_value.xlsx
+++ b/new_data_before_miss_value.xlsx
@@ -19,55 +19,55 @@
     <t>Tijdstempel</t>
   </si>
   <si>
-    <t>What programme are you in?</t>
-  </si>
-  <si>
-    <t>Have you taken a course on machine learning?</t>
-  </si>
-  <si>
-    <t>Have you taken a course on information retrieval?</t>
-  </si>
-  <si>
-    <t>Have you taken a course on statistics?</t>
-  </si>
-  <si>
-    <t>Have you taken a course on databases?</t>
-  </si>
-  <si>
-    <t>What is your gender?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have used ChatGPT to help me with some of my study assignments </t>
-  </si>
-  <si>
-    <t>When is your birthday (date)?</t>
+    <t>programme</t>
+  </si>
+  <si>
+    <t>course_ML</t>
+  </si>
+  <si>
+    <t>course_retrieval</t>
+  </si>
+  <si>
+    <t>course_statistics</t>
+  </si>
+  <si>
+    <t>course_databases</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>How many students do you estimate there are in the room?</t>
-  </si>
-  <si>
-    <t>Did you stand up to come to your previous answer    ?</t>
-  </si>
-  <si>
-    <t>What is your stress level (0-100)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many hours per week do you do sports (in whole hours)? </t>
-  </si>
-  <si>
-    <t>Give a random number</t>
-  </si>
-  <si>
-    <t>Time you went to bed Yesterday</t>
-  </si>
-  <si>
-    <t>What makes a good day for you (1)?</t>
-  </si>
-  <si>
-    <t>What makes a good day for you (2)?</t>
+    <t>students_in_room</t>
+  </si>
+  <si>
+    <t>prev_answer_stand</t>
+  </si>
+  <si>
+    <t>stress_level</t>
+  </si>
+  <si>
+    <t>sports_per_week</t>
+  </si>
+  <si>
+    <t>random_number</t>
+  </si>
+  <si>
+    <t>bed_time</t>
+  </si>
+  <si>
+    <t>good_day_(1)</t>
+  </si>
+  <si>
+    <t>good_day_(2)</t>
   </si>
   <si>
     <t>AI</t>

--- a/new_data_before_miss_value.xlsx
+++ b/new_data_before_miss_value.xlsx
@@ -4811,7 +4811,7 @@
         <v>35902</v>
       </c>
       <c r="J52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K52">
         <v>550</v>
@@ -13510,7 +13510,7 @@
         <v>35902</v>
       </c>
       <c r="J212">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K212">
         <v>520</v>
@@ -13622,7 +13622,7 @@
         <v>36265</v>
       </c>
       <c r="J214">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K214">
         <v>473</v>
